--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Bmp2-Acvr2a.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Bmp2-Acvr2a.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.445484</v>
+        <v>0.3915976666666667</v>
       </c>
       <c r="H2">
-        <v>4.336452</v>
+        <v>1.174793</v>
       </c>
       <c r="I2">
-        <v>0.1286708197254238</v>
+        <v>0.02606065131430495</v>
       </c>
       <c r="J2">
-        <v>0.1286708197254238</v>
+        <v>0.02606065131430495</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>14.61878266666667</v>
+        <v>14.321881</v>
       </c>
       <c r="N2">
-        <v>43.856348</v>
+        <v>42.965643</v>
       </c>
       <c r="O2">
-        <v>0.2662829816142095</v>
+        <v>0.2949569176783066</v>
       </c>
       <c r="P2">
-        <v>0.2662829816142095</v>
+        <v>0.2949569176783066</v>
       </c>
       <c r="Q2">
-        <v>21.13121644414399</v>
+        <v>5.608415181877668</v>
       </c>
       <c r="R2">
-        <v>190.180947997296</v>
+        <v>50.47573663689901</v>
       </c>
       <c r="S2">
-        <v>0.0342628495232303</v>
+        <v>0.007686769384356498</v>
       </c>
       <c r="T2">
-        <v>0.0342628495232303</v>
+        <v>0.007686769384356498</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.445484</v>
+        <v>0.3915976666666667</v>
       </c>
       <c r="H3">
-        <v>4.336452</v>
+        <v>1.174793</v>
       </c>
       <c r="I3">
-        <v>0.1286708197254238</v>
+        <v>0.02606065131430495</v>
       </c>
       <c r="J3">
-        <v>0.1286708197254238</v>
+        <v>0.02606065131430495</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,25 +617,25 @@
         <v>27.084169</v>
       </c>
       <c r="N3">
-        <v>81.25250699999999</v>
+        <v>81.25250700000001</v>
       </c>
       <c r="O3">
-        <v>0.4933415757187404</v>
+        <v>0.557794259435499</v>
       </c>
       <c r="P3">
-        <v>0.4933415757187404</v>
+        <v>0.557794259435499</v>
       </c>
       <c r="Q3">
-        <v>39.14973294279599</v>
+        <v>10.60609738400567</v>
       </c>
       <c r="R3">
-        <v>352.3475964851639</v>
+        <v>95.45487645605103</v>
       </c>
       <c r="S3">
-        <v>0.06347866495236257</v>
+        <v>0.0145364817002695</v>
       </c>
       <c r="T3">
-        <v>0.06347866495236257</v>
+        <v>0.0145364817002695</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1.445484</v>
+        <v>0.3915976666666667</v>
       </c>
       <c r="H4">
-        <v>4.336452</v>
+        <v>1.174793</v>
       </c>
       <c r="I4">
-        <v>0.1286708197254238</v>
+        <v>0.02606065131430495</v>
       </c>
       <c r="J4">
-        <v>0.1286708197254238</v>
+        <v>0.02606065131430495</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>13.19647366666667</v>
+        <v>7.149790333333333</v>
       </c>
       <c r="N4">
-        <v>39.589421</v>
+        <v>21.449371</v>
       </c>
       <c r="O4">
-        <v>0.2403754426670502</v>
+        <v>0.1472488228861944</v>
       </c>
       <c r="P4">
-        <v>0.2403754426670502</v>
+        <v>0.1472488228861943</v>
       </c>
       <c r="Q4">
-        <v>19.075291541588</v>
+        <v>2.799841211689222</v>
       </c>
       <c r="R4">
-        <v>171.677623874292</v>
+        <v>25.198570905203</v>
       </c>
       <c r="S4">
-        <v>0.03092930524983096</v>
+        <v>0.003837400229678959</v>
       </c>
       <c r="T4">
-        <v>0.03092930524983096</v>
+        <v>0.003837400229678958</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>18.876939</v>
       </c>
       <c r="I5">
-        <v>0.5601148623429528</v>
+        <v>0.4187506438669658</v>
       </c>
       <c r="J5">
-        <v>0.5601148623429528</v>
+        <v>0.4187506438669658</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>14.61878266666667</v>
+        <v>14.321881</v>
       </c>
       <c r="N5">
-        <v>43.856348</v>
+        <v>42.965643</v>
       </c>
       <c r="O5">
-        <v>0.2662829816142095</v>
+        <v>0.2949569176783066</v>
       </c>
       <c r="P5">
-        <v>0.2662829816142095</v>
+        <v>0.2949569176783066</v>
       </c>
       <c r="Q5">
-        <v>91.98595621764133</v>
+        <v>90.117758000753</v>
       </c>
       <c r="R5">
-        <v>827.8736059587719</v>
+        <v>811.059822006777</v>
       </c>
       <c r="S5">
-        <v>0.149149055591114</v>
+        <v>0.1235133991908065</v>
       </c>
       <c r="T5">
-        <v>0.149149055591114</v>
+        <v>0.1235133991908065</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>18.876939</v>
       </c>
       <c r="I6">
-        <v>0.5601148623429528</v>
+        <v>0.4187506438669658</v>
       </c>
       <c r="J6">
-        <v>0.5601148623429528</v>
+        <v>0.4187506438669658</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,13 +803,13 @@
         <v>27.084169</v>
       </c>
       <c r="N6">
-        <v>81.25250699999999</v>
+        <v>81.25250700000001</v>
       </c>
       <c r="O6">
-        <v>0.4933415757187404</v>
+        <v>0.557794259435499</v>
       </c>
       <c r="P6">
-        <v>0.4933415757187404</v>
+        <v>0.557794259435499</v>
       </c>
       <c r="Q6">
         <v>170.422068692897</v>
@@ -818,10 +818,10 @@
         <v>1533.798618236073</v>
       </c>
       <c r="S6">
-        <v>0.2763279487717577</v>
+        <v>0.2335767052839126</v>
       </c>
       <c r="T6">
-        <v>0.2763279487717577</v>
+        <v>0.2335767052839126</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>18.876939</v>
       </c>
       <c r="I7">
-        <v>0.5601148623429528</v>
+        <v>0.4187506438669658</v>
       </c>
       <c r="J7">
-        <v>0.5601148623429528</v>
+        <v>0.4187506438669658</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>13.19647366666667</v>
+        <v>7.149790333333333</v>
       </c>
       <c r="N7">
-        <v>39.589421</v>
+        <v>21.449371</v>
       </c>
       <c r="O7">
-        <v>0.2403754426670502</v>
+        <v>0.1472488228861944</v>
       </c>
       <c r="P7">
-        <v>0.2403754426670502</v>
+        <v>0.1472488228861943</v>
       </c>
       <c r="Q7">
-        <v>83.03634280692434</v>
+        <v>44.98871866170767</v>
       </c>
       <c r="R7">
-        <v>747.3270852623191</v>
+        <v>404.898467955369</v>
       </c>
       <c r="S7">
-        <v>0.1346378579800812</v>
+        <v>0.0616605393922467</v>
       </c>
       <c r="T7">
-        <v>0.1346378579800812</v>
+        <v>0.06166053939224669</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.496172</v>
+        <v>8.342485333333334</v>
       </c>
       <c r="H8">
-        <v>10.488516</v>
+        <v>25.027456</v>
       </c>
       <c r="I8">
-        <v>0.3112143179316233</v>
+        <v>0.5551887048187292</v>
       </c>
       <c r="J8">
-        <v>0.3112143179316232</v>
+        <v>0.5551887048187292</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>14.61878266666667</v>
+        <v>14.321881</v>
       </c>
       <c r="N8">
-        <v>43.856348</v>
+        <v>42.965643</v>
       </c>
       <c r="O8">
-        <v>0.2662829816142095</v>
+        <v>0.2949569176783066</v>
       </c>
       <c r="P8">
-        <v>0.2662829816142095</v>
+        <v>0.2949569176783066</v>
       </c>
       <c r="Q8">
-        <v>51.10977863328533</v>
+        <v>119.4800821882453</v>
       </c>
       <c r="R8">
-        <v>459.988007699568</v>
+        <v>1075.320739694208</v>
       </c>
       <c r="S8">
-        <v>0.08287107649986519</v>
+        <v>0.1637567491031436</v>
       </c>
       <c r="T8">
-        <v>0.08287107649986518</v>
+        <v>0.1637567491031436</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.496172</v>
+        <v>8.342485333333334</v>
       </c>
       <c r="H9">
-        <v>10.488516</v>
+        <v>25.027456</v>
       </c>
       <c r="I9">
-        <v>0.3112143179316233</v>
+        <v>0.5551887048187292</v>
       </c>
       <c r="J9">
-        <v>0.3112143179316232</v>
+        <v>0.5551887048187292</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,25 +989,25 @@
         <v>27.084169</v>
       </c>
       <c r="N9">
-        <v>81.25250699999999</v>
+        <v>81.25250700000001</v>
       </c>
       <c r="O9">
-        <v>0.4933415757187404</v>
+        <v>0.557794259435499</v>
       </c>
       <c r="P9">
-        <v>0.4933415757187404</v>
+        <v>0.557794259435499</v>
       </c>
       <c r="Q9">
-        <v>94.69091330106799</v>
+        <v>225.9492826480214</v>
       </c>
       <c r="R9">
-        <v>852.218219709612</v>
+        <v>2033.543543832192</v>
       </c>
       <c r="S9">
-        <v>0.1535349619946201</v>
+        <v>0.3096810724513169</v>
       </c>
       <c r="T9">
-        <v>0.1535349619946201</v>
+        <v>0.3096810724513169</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.496172</v>
+        <v>8.342485333333334</v>
       </c>
       <c r="H10">
-        <v>10.488516</v>
+        <v>25.027456</v>
       </c>
       <c r="I10">
-        <v>0.3112143179316233</v>
+        <v>0.5551887048187292</v>
       </c>
       <c r="J10">
-        <v>0.3112143179316232</v>
+        <v>0.5551887048187292</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>13.19647366666667</v>
+        <v>7.149790333333333</v>
       </c>
       <c r="N10">
-        <v>39.589421</v>
+        <v>21.449371</v>
       </c>
       <c r="O10">
-        <v>0.2403754426670502</v>
+        <v>0.1472488228861944</v>
       </c>
       <c r="P10">
-        <v>0.2403754426670502</v>
+        <v>0.1472488228861943</v>
       </c>
       <c r="Q10">
-        <v>46.13714173213734</v>
+        <v>59.64702099224178</v>
       </c>
       <c r="R10">
-        <v>415.2342755892361</v>
+        <v>536.823188930176</v>
       </c>
       <c r="S10">
-        <v>0.07480827943713804</v>
+        <v>0.0817508832642687</v>
       </c>
       <c r="T10">
-        <v>0.07480827943713803</v>
+        <v>0.08175088326426869</v>
       </c>
     </row>
   </sheetData>
